--- a/supplementary/TableTurnoverValues.xlsx
+++ b/supplementary/TableTurnoverValues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="0" windowWidth="25600" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -27,30 +27,6 @@
     <t>Months</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>rw</t>
-  </si>
-  <si>
-    <t>rw/int</t>
-  </si>
-  <si>
-    <t>st/int</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>bee</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -94,6 +70,24 @@
   </si>
   <si>
     <t>IBGE</t>
+  </si>
+  <si>
+    <t>$\beta_{int}$</t>
+  </si>
+  <si>
+    <t>$\beta_{rw}$</t>
+  </si>
+  <si>
+    <t>$\beta_{st}$</t>
+  </si>
+  <si>
+    <t>$\beta_{S}$</t>
+  </si>
+  <si>
+    <t>$\beta_{Plant}$</t>
+  </si>
+  <si>
+    <t>$\beta_{Bee}$</t>
   </si>
 </sst>
 </file>
@@ -101,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.###"/>
+    <numFmt numFmtId="164" formatCode="0.###"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -145,8 +139,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,17 +154,19 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,39 +512,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1995</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -558,32 +550,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>D2/C2</f>
-        <v>0</v>
+        <v>0.89473999999999998</v>
       </c>
       <c r="G2" s="1">
-        <f>E2/C2</f>
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.89473999999999998</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1995</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>0.96721000000000001</v>
@@ -595,32 +579,24 @@
         <v>0.30053999999999997</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F25" si="0">D3/C3</f>
-        <v>0.68927120273777154</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G25" si="1">E3/C3</f>
-        <v>0.31072879726222846</v>
+        <v>0.74194000000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>0.71428999999999998</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.74194000000000004</v>
-      </c>
-      <c r="J3" s="1">
         <v>0.68</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1995</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>0.93103000000000002</v>
@@ -632,32 +608,24 @@
         <v>0.23103000000000001</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75185547189671642</v>
+        <v>0.59036</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24814452810328347</v>
+        <v>0.54166999999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>0.59036</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.54166999999999998</v>
-      </c>
-      <c r="J4" s="1">
         <v>0.65713999999999995</v>
       </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1995</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>0.92105000000000004</v>
@@ -669,32 +637,24 @@
         <v>0.38258999999999999</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58461538461538465</v>
+        <v>0.65788999999999997</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.41538461538461535</v>
+        <v>0.65854000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>0.65788999999999997</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.65854000000000001</v>
-      </c>
-      <c r="J5" s="1">
         <v>0.65713999999999995</v>
       </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1995</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>0.95918000000000003</v>
@@ -706,32 +666,24 @@
         <v>0.62585000000000002</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34751558622990469</v>
+        <v>0.78722999999999999</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.65248441377009525</v>
+        <v>0.76</v>
       </c>
       <c r="H6" s="1">
-        <v>0.78722999999999999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="J6" s="1">
         <v>0.81818000000000002</v>
       </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1995</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>0.85714000000000001</v>
@@ -743,32 +695,24 @@
         <v>0.85714000000000001</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80952000000000002</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>0.80952000000000002</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.85714000000000001</v>
-      </c>
-      <c r="J7" s="1">
         <v>0.71428999999999998</v>
       </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1995</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>0.84614999999999996</v>
@@ -780,32 +724,24 @@
         <v>0.84614999999999996</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.78947000000000001</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.84614999999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>0.78947000000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.84614999999999996</v>
-      </c>
-      <c r="J8" s="1">
         <v>0.66666999999999998</v>
       </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1996</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -817,32 +753,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95121999999999995</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <v>0.92308000000000001</v>
+      </c>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.95121999999999995</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.92308000000000001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1996</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>0.92981999999999998</v>
@@ -854,32 +782,24 @@
         <v>0.42981999999999998</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53773848701899296</v>
+        <v>0.78081999999999996</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.46226151298100704</v>
+        <v>0.76</v>
       </c>
       <c r="H10" s="1">
-        <v>0.78081999999999996</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="J10" s="1">
         <v>0.82608999999999999</v>
       </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1996</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>0.85714000000000001</v>
@@ -891,32 +811,24 @@
         <v>0.33989999999999998</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60344867816226055</v>
+        <v>0.56701000000000001</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.39655132183773945</v>
+        <v>0.57745999999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>0.56701000000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.57745999999999997</v>
-      </c>
-      <c r="J11" s="1">
         <v>0.53846000000000005</v>
       </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1996</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>0.85897000000000001</v>
@@ -928,32 +840,24 @@
         <v>0.1923</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77612722213814211</v>
+        <v>0.52671999999999997</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.2238727778618578</v>
+        <v>0.49451000000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>0.52671999999999997</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.49451000000000001</v>
-      </c>
-      <c r="J12" s="1">
         <v>0.6</v>
       </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>0.74746999999999997</v>
@@ -965,32 +869,24 @@
         <v>0.37247000000000002</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50169237561373703</v>
+        <v>0.50327</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.49830762438626303</v>
+        <v>0.48</v>
       </c>
       <c r="H13" s="1">
-        <v>0.50327</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="J13" s="1">
         <v>0.54717000000000005</v>
       </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1996</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>0.78142</v>
@@ -1002,32 +898,24 @@
         <v>0.22586000000000001</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71096209464820459</v>
+        <v>0.47586000000000001</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.28903790535179547</v>
+        <v>0.46809000000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0.47586000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.46809000000000001</v>
-      </c>
-      <c r="J14" s="1">
         <v>0.49020000000000002</v>
       </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1996</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>0.82050999999999996</v>
@@ -1039,32 +927,24 @@
         <v>0.31174000000000002</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.62006556897539333</v>
+        <v>0.53846000000000005</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37993443102460667</v>
+        <v>0.50588</v>
       </c>
       <c r="H15" s="1">
-        <v>0.53846000000000005</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.50588</v>
-      </c>
-      <c r="J15" s="1">
         <v>0.6</v>
       </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>1996</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>0.97260000000000002</v>
@@ -1076,32 +956,24 @@
         <v>0.22259999999999999</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77112893275755701</v>
+        <v>0.63492000000000004</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>0.22887106724244291</v>
+        <v>0.52941000000000005</v>
       </c>
       <c r="H16" s="1">
-        <v>0.63492000000000004</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.52941000000000005</v>
-      </c>
-      <c r="J16" s="1">
         <v>0.85365999999999997</v>
       </c>
-      <c r="K16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1996</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>0.96491000000000005</v>
@@ -1113,32 +985,24 @@
         <v>0.23158000000000001</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75999834181426251</v>
+        <v>0.60714000000000001</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24000165818573752</v>
+        <v>0.51219999999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>0.60714000000000001</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.51219999999999999</v>
-      </c>
-      <c r="J17" s="1">
         <v>0.86667000000000005</v>
       </c>
-      <c r="K17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1996</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>0.87412999999999996</v>
@@ -1150,32 +1014,24 @@
         <v>0.38841999999999999</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55564961733380613</v>
+        <v>0.6</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.44435038266619381</v>
+        <v>0.56435999999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.56435999999999997</v>
-      </c>
-      <c r="J18" s="1">
         <v>0.72414000000000001</v>
       </c>
-      <c r="K18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1996</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
         <v>0.83516000000000001</v>
@@ -1187,32 +1043,24 @@
         <v>0.35239999999999999</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.57804492552325304</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.42195507447674696</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="1">
-        <v>0.54139999999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="1">
         <v>0.67567999999999995</v>
       </c>
-      <c r="K19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1996</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>0.98667000000000005</v>
@@ -1224,32 +1072,24 @@
         <v>0.12</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.87837878926084711</v>
+        <v>0.63514000000000004</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1216212107391529</v>
+        <v>0.56701000000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>0.63514000000000004</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.56701000000000001</v>
-      </c>
-      <c r="J20" s="1">
         <v>0.76471</v>
       </c>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1997</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>0.88060000000000005</v>
@@ -1261,32 +1101,24 @@
         <v>0.28060000000000002</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.68135362253009302</v>
+        <v>0.56337999999999999</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>0.31864637746990687</v>
+        <v>0.53086</v>
       </c>
       <c r="H21" s="1">
-        <v>0.56337999999999999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.53086</v>
-      </c>
-      <c r="J21" s="1">
         <v>0.60655999999999999</v>
       </c>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1997</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>0.86667000000000005</v>
@@ -1298,32 +1130,24 @@
         <v>0.24598</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71617801469994335</v>
+        <v>0.62238000000000004</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.28382198530005653</v>
+        <v>0.62790999999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>0.62238000000000004</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.62790999999999997</v>
-      </c>
-      <c r="J22" s="1">
         <v>0.61404000000000003</v>
       </c>
-      <c r="K22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1997</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>0.81667000000000001</v>
@@ -1335,32 +1159,24 @@
         <v>0.19597999999999999</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76002546928379877</v>
+        <v>0.50288999999999995</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23997453071620115</v>
+        <v>0.45613999999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>0.50288999999999995</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.45613999999999999</v>
-      </c>
-      <c r="J23" s="1">
         <v>0.59321999999999997</v>
       </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1997</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
         <v>0.81818000000000002</v>
@@ -1372,32 +1188,24 @@
         <v>0.29818</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6355569679043731</v>
+        <v>0.54430000000000001</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.3644430320956269</v>
+        <v>0.51456000000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>0.54430000000000001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.51456000000000002</v>
-      </c>
-      <c r="J24" s="1">
         <v>0.6</v>
       </c>
-      <c r="K24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1997</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>0.89654999999999996</v>
@@ -1409,32 +1217,24 @@
         <v>0.56322000000000005</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37179186883051701</v>
+        <v>0.75385000000000002</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.62820813116948315</v>
+        <v>0.69230999999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>0.75385000000000002</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.69230999999999998</v>
-      </c>
-      <c r="J25" s="1">
         <v>0.84614999999999996</v>
       </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>2008</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1446,32 +1246,24 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F36" si="2">D26/C26</f>
-        <v>0</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G36" si="3">E26/C26</f>
+        <v>0.86046999999999996</v>
+      </c>
+      <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1">
-        <v>0.90908999999999995</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.86046999999999996</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>2008</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
         <v>0.86207</v>
@@ -1483,32 +1275,24 @@
         <v>0.36207</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.57999930400083521</v>
+        <v>0.61702000000000001</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
-        <v>0.42000069599916479</v>
+        <v>0.58065</v>
       </c>
       <c r="H27" s="1">
-        <v>0.61702000000000001</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.58065</v>
-      </c>
-      <c r="J27" s="1">
         <v>0.6875</v>
       </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>2008</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>0.89393999999999996</v>
@@ -1520,32 +1304,24 @@
         <v>0.28283000000000003</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.68361411280399142</v>
+        <v>0.59663999999999995</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.31638588719600874</v>
+        <v>0.54286000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>0.59663999999999995</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.54286000000000001</v>
-      </c>
-      <c r="J28" s="1">
         <v>0.67347000000000001</v>
       </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>2009</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1">
         <v>0.83606999999999998</v>
@@ -1557,32 +1333,24 @@
         <v>0.36238999999999999</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56655543196143865</v>
+        <v>0.58182</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="3"/>
-        <v>0.43344456803856135</v>
+        <v>0.57576000000000005</v>
       </c>
       <c r="H29" s="1">
-        <v>0.58182</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.57576000000000005</v>
-      </c>
-      <c r="J29" s="1">
         <v>0.59091000000000005</v>
       </c>
-      <c r="K29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>2009</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>0.93369999999999997</v>
@@ -1594,32 +1362,24 @@
         <v>0.32079999999999997</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
-        <v>0.65642069187105068</v>
+        <v>0.65891</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="3"/>
-        <v>0.34357930812894932</v>
+        <v>0.63636000000000004</v>
       </c>
       <c r="H30" s="1">
-        <v>0.65891</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.63636000000000004</v>
-      </c>
-      <c r="J30" s="1">
         <v>0.69230999999999998</v>
       </c>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>2009</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1">
         <v>0.96609999999999996</v>
@@ -1631,32 +1391,24 @@
         <v>0.13753000000000001</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
-        <v>0.8576441362177829</v>
+        <v>0.70079000000000002</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
-        <v>0.14235586378221718</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="H31" s="1">
-        <v>0.70079000000000002</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.70269999999999999</v>
-      </c>
-      <c r="J31" s="1">
         <v>0.69811000000000001</v>
       </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>2009</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1">
         <v>0.89473999999999998</v>
@@ -1668,32 +1420,24 @@
         <v>0.56140999999999996</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.37254397925654381</v>
+        <v>0.66037999999999997</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="3"/>
-        <v>0.62745602074345619</v>
+        <v>0.6129</v>
       </c>
       <c r="H32" s="1">
-        <v>0.66037999999999997</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.6129</v>
-      </c>
-      <c r="J32" s="1">
         <v>0.72726999999999997</v>
       </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>2009</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>0.90164</v>
@@ -1705,32 +1449,24 @@
         <v>0.40164</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.55454505123996278</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="3"/>
-        <v>0.44545494876003727</v>
+        <v>0.6</v>
       </c>
       <c r="H33" s="1">
-        <v>0.66666999999999998</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J33" s="1">
         <v>0.75</v>
       </c>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>0.75341999999999998</v>
@@ -1742,32 +1478,24 @@
         <v>0.42009000000000002</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.44242255315760137</v>
+        <v>0.56410000000000005</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="3"/>
-        <v>0.55757744684239874</v>
+        <v>0.70731999999999995</v>
       </c>
       <c r="H34" s="1">
-        <v>0.56410000000000005</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.70731999999999995</v>
-      </c>
-      <c r="J34" s="1">
         <v>0.40540999999999999</v>
       </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>2009</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
         <v>0.76119000000000003</v>
@@ -1779,32 +1507,24 @@
         <v>0.33262000000000003</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56302631406087833</v>
+        <v>0.51429000000000002</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="3"/>
-        <v>0.43697368593912167</v>
+        <v>0.52941000000000005</v>
       </c>
       <c r="H35" s="1">
-        <v>0.51429000000000002</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.52941000000000005</v>
-      </c>
-      <c r="J35" s="1">
         <v>0.5</v>
       </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>2009</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
         <v>0.86956999999999995</v>
@@ -1816,24 +1536,16 @@
         <v>0.72670999999999997</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="2"/>
-        <v>0.16428809641546971</v>
+        <v>0.80769000000000002</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="3"/>
-        <v>0.83571190358453029</v>
+        <v>0.76</v>
       </c>
       <c r="H36" s="1">
-        <v>0.80769000000000002</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="J36" s="1">
         <v>0.85185</v>
       </c>
-      <c r="K36" t="s">
-        <v>24</v>
+      <c r="I36" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
